--- a/Initial_Prototype_UI/Outputs/183D1PLZ_平面図04_OUT1.xlsx
+++ b/Initial_Prototype_UI/Outputs/183D1PLZ_平面図04_OUT1.xlsx
@@ -1,17 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>55.0058,248.63</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>148.9235,282.9196</t>
+  </si>
+  <si>
+    <t>245.296,309.4909</t>
+  </si>
+  <si>
+    <t>343.61199999999997,327.5921</t>
+  </si>
+  <si>
+    <t>443.1287,337.0865</t>
+  </si>
+  <si>
+    <t>543.0938,337.9023</t>
+  </si>
+  <si>
+    <t>642.7521,330.0334</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,74 +119,6 @@
     <cellStyle name="Pandas" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -446,143 +419,95 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Circle</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>55.0058,248.63</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Circle</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>148.9235,282.9196</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Circle</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>245.296,309.4909</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Circle</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>343.612,327.5921</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Circle</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>443.1287,337.0865</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Circle</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>543.0938,337.9023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Circle</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>642.7521,330.0334</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
